--- a/vimigo-students.xlsx
+++ b/vimigo-students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidfoo/Documents/vimigo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8091C88-7C70-0642-A794-960A64217EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDEE9125-546A-6440-9B4A-C7816552D30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="17160" xr2:uid="{C6B51858-29B1-B94E-AE76-52C10309E73B}"/>
   </bookViews>
